--- a/Datavendedor.xlsx
+++ b/Datavendedor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhxelLuis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qanders-my.sharepoint.com/personal/ahxel_zavala_anders_group/Documents/Documentos/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4B96C1D0-682A-46B1-BC3B-C41B8ECD90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
+    <workbookView xWindow="42900" yWindow="2805" windowWidth="22020" windowHeight="15345" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datavendedor.xlsx
+++ b/Datavendedor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qanders-my.sharepoint.com/personal/ahxel_zavala_anders_group/Documents/Documentos/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B96C1D0-682A-46B1-BC3B-C41B8ECD90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{4B96C1D0-682A-46B1-BC3B-C41B8ECD90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4B8B2C-8885-4C81-9D1A-4E3EBC8D5C66}"/>
   <bookViews>
-    <workbookView xWindow="42900" yWindow="2805" windowWidth="22020" windowHeight="15345" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
+    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="133">
   <si>
     <t>Pais</t>
   </si>
@@ -56,22 +56,385 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>Vendedor 1 Peru</t>
-  </si>
-  <si>
-    <t>Vendedor 2 Peru</t>
-  </si>
-  <si>
-    <t>Vendedor 2 Chile</t>
-  </si>
-  <si>
-    <t>Vendedor 2 Colombia</t>
-  </si>
-  <si>
-    <t>Vendedor 1 Chile</t>
-  </si>
-  <si>
-    <t>Vendedor 1 Colombia</t>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Gabriela Anavitarte</t>
+  </si>
+  <si>
+    <t>Florian Ramirez</t>
+  </si>
+  <si>
+    <t>Horst Eichhorn</t>
+  </si>
+  <si>
+    <t>Yelicza Ganoza</t>
+  </si>
+  <si>
+    <t>Paolo Revilla</t>
+  </si>
+  <si>
+    <t>Marie Cabarrus</t>
+  </si>
+  <si>
+    <t>Gabriel Burga</t>
+  </si>
+  <si>
+    <t>Alexander Becerra</t>
+  </si>
+  <si>
+    <t>Mirella Nuñez</t>
+  </si>
+  <si>
+    <t>Evelyn Laura</t>
+  </si>
+  <si>
+    <t>Sergio Vargas</t>
+  </si>
+  <si>
+    <t>Henry Llapapasca</t>
+  </si>
+  <si>
+    <t>Erick Montes</t>
+  </si>
+  <si>
+    <t>Katya Portocarrero</t>
+  </si>
+  <si>
+    <t>Daniel Estremadoyro</t>
+  </si>
+  <si>
+    <t>Diego Guzman</t>
+  </si>
+  <si>
+    <t>Carla Garcia</t>
+  </si>
+  <si>
+    <t>Francesco Gallese</t>
+  </si>
+  <si>
+    <t>Ricardo Palma</t>
+  </si>
+  <si>
+    <t>Pedro Levano</t>
+  </si>
+  <si>
+    <t>Enzo Carpio</t>
+  </si>
+  <si>
+    <t>Mario Flores</t>
+  </si>
+  <si>
+    <t>Ronald Arredondo</t>
+  </si>
+  <si>
+    <t>Elsa Gonzales</t>
+  </si>
+  <si>
+    <t>Gisella Brenis</t>
+  </si>
+  <si>
+    <t>Peter M. Anders Hornung</t>
+  </si>
+  <si>
+    <t>Alejandro Avendaño</t>
+  </si>
+  <si>
+    <t>Yoilitza Carazas</t>
+  </si>
+  <si>
+    <t>Richard Anders</t>
+  </si>
+  <si>
+    <t>Lourdes Franco</t>
+  </si>
+  <si>
+    <t>Luis Montesinos</t>
+  </si>
+  <si>
+    <t>Katherina Yamamoto</t>
+  </si>
+  <si>
+    <t>Gianina Anders</t>
+  </si>
+  <si>
+    <t>Sin Comercial</t>
+  </si>
+  <si>
+    <t>Jose Anticona</t>
+  </si>
+  <si>
+    <t>Beatriz Sanchez</t>
+  </si>
+  <si>
+    <t>Cristina Pelaez</t>
+  </si>
+  <si>
+    <t>Rodrigo Ma</t>
+  </si>
+  <si>
+    <t>Valeria Grimaldi</t>
+  </si>
+  <si>
+    <t>Fernando Sobrado</t>
+  </si>
+  <si>
+    <t>Carlos Quiroz</t>
+  </si>
+  <si>
+    <t>Aracely Mori</t>
+  </si>
+  <si>
+    <t>Margaret Alvarez</t>
+  </si>
+  <si>
+    <t>Cesar Avila</t>
+  </si>
+  <si>
+    <t>Walter Briceno</t>
+  </si>
+  <si>
+    <t>Emigio Gamboa</t>
+  </si>
+  <si>
+    <t>Lesly Diaz</t>
+  </si>
+  <si>
+    <t>Frank Saravia</t>
+  </si>
+  <si>
+    <t>Diego Zegarra</t>
+  </si>
+  <si>
+    <t>Victor Cachi</t>
+  </si>
+  <si>
+    <t>Alexander Piedra Cano</t>
+  </si>
+  <si>
+    <t>Eliana Roberto</t>
+  </si>
+  <si>
+    <t>Esteban Flores G.</t>
+  </si>
+  <si>
+    <t>Jessica Bastias</t>
+  </si>
+  <si>
+    <t>Kelly Cordoba</t>
+  </si>
+  <si>
+    <t>Lucy Palza</t>
+  </si>
+  <si>
+    <t>Milenka Flores</t>
+  </si>
+  <si>
+    <t>Oscar Ferrel</t>
+  </si>
+  <si>
+    <t>Paola Acosta</t>
+  </si>
+  <si>
+    <t>Paulina Jofre</t>
+  </si>
+  <si>
+    <t>Sandra Rojas</t>
+  </si>
+  <si>
+    <t>Soledad Sanchez</t>
+  </si>
+  <si>
+    <t>Yamilca Gorostiaga</t>
+  </si>
+  <si>
+    <t>Pablo Romeo</t>
+  </si>
+  <si>
+    <t>Jaasiel Melillo</t>
+  </si>
+  <si>
+    <t>Christopher Tasayco</t>
+  </si>
+  <si>
+    <t>Carlos Caballero</t>
+  </si>
+  <si>
+    <t>-Ningún empleado del departamento de ventas-</t>
+  </si>
+  <si>
+    <t>Alexis Ortiz</t>
+  </si>
+  <si>
+    <t>Andrea Damianich</t>
+  </si>
+  <si>
+    <t>Daniel Lagomarsino</t>
+  </si>
+  <si>
+    <t>Ramiro Buscetto</t>
+  </si>
+  <si>
+    <t>Sebastian Rivera</t>
+  </si>
+  <si>
+    <t>Vicente Tarsia</t>
+  </si>
+  <si>
+    <t>Alejandro Gonzalez</t>
+  </si>
+  <si>
+    <t>Carlos Soto</t>
+  </si>
+  <si>
+    <t>Carola Ardaya</t>
+  </si>
+  <si>
+    <t>Claudia Roda</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>Jean Pierre Justiniano</t>
+  </si>
+  <si>
+    <t>Josue Torrez</t>
+  </si>
+  <si>
+    <t>Karlita Jordan</t>
+  </si>
+  <si>
+    <t>Kathia Justiniano</t>
+  </si>
+  <si>
+    <t>Mariela Aguilera</t>
+  </si>
+  <si>
+    <t>Oscar Valderrama</t>
+  </si>
+  <si>
+    <t>Pamela Rivero</t>
+  </si>
+  <si>
+    <t>Patricia Sandi</t>
+  </si>
+  <si>
+    <t>Veronica Pereira</t>
+  </si>
+  <si>
+    <t>Alexis Carreño</t>
+  </si>
+  <si>
+    <t>Carlos Cardenas</t>
+  </si>
+  <si>
+    <t>Carolina Muñoz</t>
+  </si>
+  <si>
+    <t>Cristian Davila</t>
+  </si>
+  <si>
+    <t>Diego Maldonado</t>
+  </si>
+  <si>
+    <t>Enrique López</t>
+  </si>
+  <si>
+    <t>Gerencia General</t>
+  </si>
+  <si>
+    <t>Giannina Plaza</t>
+  </si>
+  <si>
+    <t>Juan Francisco</t>
+  </si>
+  <si>
+    <t>Julia Urriola</t>
+  </si>
+  <si>
+    <t>Lorena Garcia</t>
+  </si>
+  <si>
+    <t>Mario Passalacqua</t>
+  </si>
+  <si>
+    <t>Natalia Cid</t>
+  </si>
+  <si>
+    <t>Peter Anders Hornung</t>
+  </si>
+  <si>
+    <t>Rosa Noriega</t>
+  </si>
+  <si>
+    <t>Ruben Zamora</t>
+  </si>
+  <si>
+    <t>Sarahiz Guerrero</t>
+  </si>
+  <si>
+    <t>Valeska Pottstock</t>
+  </si>
+  <si>
+    <t>Yanara Fuentes</t>
+  </si>
+  <si>
+    <t>Diana Rodriguez</t>
+  </si>
+  <si>
+    <t>Diego Tierradentro</t>
+  </si>
+  <si>
+    <t>Gustavo Medina</t>
+  </si>
+  <si>
+    <t>Hernan Gomez</t>
+  </si>
+  <si>
+    <t>Jose Gomez</t>
+  </si>
+  <si>
+    <t>Narda Hurtado</t>
+  </si>
+  <si>
+    <t>Neymer Reyes</t>
+  </si>
+  <si>
+    <t>Ximena Diaz</t>
+  </si>
+  <si>
+    <t>Adriana Cazar</t>
+  </si>
+  <si>
+    <t>Alejandra Alcivar</t>
+  </si>
+  <si>
+    <t>Belen Bustamante</t>
+  </si>
+  <si>
+    <t>Carol Barahona</t>
+  </si>
+  <si>
+    <t>Gonzalo Benavides</t>
+  </si>
+  <si>
+    <t>Jaime Betancourt</t>
+  </si>
+  <si>
+    <t>Maria Mercedes Gonzalez</t>
+  </si>
+  <si>
+    <t>Pablo Perez</t>
+  </si>
+  <si>
+    <t>Suheil Palma</t>
   </si>
 </sst>
 </file>
@@ -443,17 +806,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC65FF3-C14F-4805-85B5-820315D8EAE8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,54 +848,1726 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
         <v>9</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
         <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>119</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Datavendedor.xlsx
+++ b/Datavendedor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qanders-my.sharepoint.com/personal/ahxel_zavala_anders_group/Documents/Documentos/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{4B96C1D0-682A-46B1-BC3B-C41B8ECD90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4B8B2C-8885-4C81-9D1A-4E3EBC8D5C66}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{4B96C1D0-682A-46B1-BC3B-C41B8ECD90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE53BCC9-83B3-46B0-95D4-4482A74BB33F}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26483AE3-9887-4E7F-9265-A5854B205779}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>Pais</t>
   </si>
@@ -74,51 +74,18 @@
     <t>Horst Eichhorn</t>
   </si>
   <si>
-    <t>Yelicza Ganoza</t>
-  </si>
-  <si>
     <t>Paolo Revilla</t>
   </si>
   <si>
-    <t>Marie Cabarrus</t>
-  </si>
-  <si>
     <t>Gabriel Burga</t>
   </si>
   <si>
     <t>Alexander Becerra</t>
   </si>
   <si>
-    <t>Mirella Nuñez</t>
-  </si>
-  <si>
-    <t>Evelyn Laura</t>
-  </si>
-  <si>
-    <t>Sergio Vargas</t>
-  </si>
-  <si>
-    <t>Henry Llapapasca</t>
-  </si>
-  <si>
     <t>Erick Montes</t>
   </si>
   <si>
-    <t>Katya Portocarrero</t>
-  </si>
-  <si>
-    <t>Daniel Estremadoyro</t>
-  </si>
-  <si>
-    <t>Diego Guzman</t>
-  </si>
-  <si>
-    <t>Carla Garcia</t>
-  </si>
-  <si>
-    <t>Francesco Gallese</t>
-  </si>
-  <si>
     <t>Ricardo Palma</t>
   </si>
   <si>
@@ -137,30 +104,9 @@
     <t>Elsa Gonzales</t>
   </si>
   <si>
-    <t>Gisella Brenis</t>
-  </si>
-  <si>
     <t>Peter M. Anders Hornung</t>
   </si>
   <si>
-    <t>Alejandro Avendaño</t>
-  </si>
-  <si>
-    <t>Yoilitza Carazas</t>
-  </si>
-  <si>
-    <t>Richard Anders</t>
-  </si>
-  <si>
-    <t>Lourdes Franco</t>
-  </si>
-  <si>
-    <t>Luis Montesinos</t>
-  </si>
-  <si>
-    <t>Katherina Yamamoto</t>
-  </si>
-  <si>
     <t>Gianina Anders</t>
   </si>
   <si>
@@ -173,9 +119,6 @@
     <t>Beatriz Sanchez</t>
   </si>
   <si>
-    <t>Cristina Pelaez</t>
-  </si>
-  <si>
     <t>Rodrigo Ma</t>
   </si>
   <si>
@@ -191,9 +134,6 @@
     <t>Aracely Mori</t>
   </si>
   <si>
-    <t>Margaret Alvarez</t>
-  </si>
-  <si>
     <t>Cesar Avila</t>
   </si>
   <si>
@@ -209,9 +149,6 @@
     <t>Frank Saravia</t>
   </si>
   <si>
-    <t>Diego Zegarra</t>
-  </si>
-  <si>
     <t>Victor Cachi</t>
   </si>
   <si>
@@ -230,9 +167,6 @@
     <t>Kelly Cordoba</t>
   </si>
   <si>
-    <t>Lucy Palza</t>
-  </si>
-  <si>
     <t>Milenka Flores</t>
   </si>
   <si>
@@ -287,18 +221,9 @@
     <t>Vicente Tarsia</t>
   </si>
   <si>
-    <t>Alejandro Gonzalez</t>
-  </si>
-  <si>
-    <t>Carlos Soto</t>
-  </si>
-  <si>
     <t>Carola Ardaya</t>
   </si>
   <si>
-    <t>Claudia Roda</t>
-  </si>
-  <si>
     <t>Gerencia</t>
   </si>
   <si>
@@ -311,9 +236,6 @@
     <t>Karlita Jordan</t>
   </si>
   <si>
-    <t>Kathia Justiniano</t>
-  </si>
-  <si>
     <t>Mariela Aguilera</t>
   </si>
   <si>
@@ -326,99 +248,42 @@
     <t>Patricia Sandi</t>
   </si>
   <si>
-    <t>Veronica Pereira</t>
-  </si>
-  <si>
     <t>Alexis Carreño</t>
   </si>
   <si>
     <t>Carlos Cardenas</t>
   </si>
   <si>
-    <t>Carolina Muñoz</t>
-  </si>
-  <si>
-    <t>Cristian Davila</t>
-  </si>
-  <si>
     <t>Diego Maldonado</t>
   </si>
   <si>
-    <t>Enrique López</t>
-  </si>
-  <si>
     <t>Gerencia General</t>
   </si>
   <si>
-    <t>Giannina Plaza</t>
-  </si>
-  <si>
-    <t>Juan Francisco</t>
-  </si>
-  <si>
-    <t>Julia Urriola</t>
-  </si>
-  <si>
     <t>Lorena Garcia</t>
   </si>
   <si>
-    <t>Mario Passalacqua</t>
-  </si>
-  <si>
     <t>Natalia Cid</t>
   </si>
   <si>
     <t>Peter Anders Hornung</t>
   </si>
   <si>
-    <t>Rosa Noriega</t>
-  </si>
-  <si>
     <t>Ruben Zamora</t>
   </si>
   <si>
-    <t>Sarahiz Guerrero</t>
-  </si>
-  <si>
-    <t>Valeska Pottstock</t>
-  </si>
-  <si>
     <t>Yanara Fuentes</t>
   </si>
   <si>
-    <t>Diana Rodriguez</t>
-  </si>
-  <si>
-    <t>Diego Tierradentro</t>
-  </si>
-  <si>
     <t>Gustavo Medina</t>
   </si>
   <si>
-    <t>Hernan Gomez</t>
-  </si>
-  <si>
     <t>Jose Gomez</t>
   </si>
   <si>
-    <t>Narda Hurtado</t>
-  </si>
-  <si>
     <t>Neymer Reyes</t>
   </si>
   <si>
-    <t>Ximena Diaz</t>
-  </si>
-  <si>
-    <t>Adriana Cazar</t>
-  </si>
-  <si>
-    <t>Alejandra Alcivar</t>
-  </si>
-  <si>
-    <t>Belen Bustamante</t>
-  </si>
-  <si>
     <t>Carol Barahona</t>
   </si>
   <si>
@@ -426,9 +291,6 @@
   </si>
   <si>
     <t>Jaime Betancourt</t>
-  </si>
-  <si>
-    <t>Maria Mercedes Gonzalez</t>
   </si>
   <si>
     <t>Pablo Perez</t>
@@ -476,7 +338,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -806,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC65FF3-C14F-4805-85B5-820315D8EAE8}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,10 +764,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,10 +808,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,10 +863,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,10 +929,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,10 +973,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,10 +995,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,10 +1050,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,458 +1061,458 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C48">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>68</v>
       </c>
       <c r="C53">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C65">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C73">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1637,65 +1520,65 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -1703,870 +1586,122 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C91">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" t="s">
-        <v>102</v>
-      </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>111</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" t="s">
-        <v>114</v>
-      </c>
-      <c r="C126">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" t="s">
-        <v>118</v>
-      </c>
-      <c r="C132">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
-        <v>121</v>
-      </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>76</v>
-      </c>
-      <c r="C138">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" t="s">
-        <v>124</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" t="s">
-        <v>125</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>59</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" t="s">
-        <v>127</v>
-      </c>
-      <c r="C147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" t="s">
-        <v>87</v>
-      </c>
-      <c r="C150">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" t="s">
-        <v>128</v>
-      </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" t="s">
-        <v>129</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" t="s">
-        <v>130</v>
-      </c>
-      <c r="C154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" t="s">
-        <v>76</v>
-      </c>
-      <c r="C155">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" t="s">
-        <v>67</v>
-      </c>
-      <c r="C157">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" t="s">
-        <v>42</v>
-      </c>
-      <c r="C158">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" t="s">
-        <v>132</v>
-      </c>
-      <c r="C159">
         <v>9</v>
       </c>
     </row>
